--- a/Client/Assets/Excels/LevelResultInfo.xlsx
+++ b/Client/Assets/Excels/LevelResultInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yoiem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F895B-D19B-47C3-8E48-3CC12012EE3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC083E5E-E33E-434A-BA63-847CF1EE0E97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{823B1FA6-DF90-4F25-A0F7-B93CF468B779}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>勇气是一切的开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恒的友谊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐行渐远</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,12 +106,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -112,14 +135,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,105 +462,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3727B6-10C7-4F5B-B173-45BF46385CD7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>101</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-1</v>
       </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>102</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>50</v>
       </c>
-      <c r="C4" s="2">
-        <v>85</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3">
         <v>-1</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>103</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>55</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>55</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Client/Assets/Excels/LevelResultInfo.xlsx
+++ b/Client/Assets/Excels/LevelResultInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ForgetfulCupid\ForgetfulCupid\Client\Assets\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\game\unity_try\Forgetful Cupid\test\ForgetfulCupid\Client\Assets\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC083E5E-E33E-434A-BA63-847CF1EE0E97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A7A35-9F51-4967-8A09-38513D565D64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{823B1FA6-DF90-4F25-A0F7-B93CF468B779}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>关卡编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>渐行渐远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3727B6-10C7-4F5B-B173-45BF46385CD7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -518,7 +524,9 @@
       <c r="D3" s="3">
         <v>-1</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,7 +542,9 @@
       <c r="D4" s="3">
         <v>-1</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -586,7 +596,9 @@
       <c r="D7" s="3">
         <v>-1</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -602,7 +614,9 @@
       <c r="D8" s="3">
         <v>-1</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
